--- a/experiments.xlsx
+++ b/experiments.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Documents\GitHub\DeeplabV3-for-Corals\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3168DDF9-E871-43B6-88F5-73E8C882529A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43C76C75-21A0-456F-B485-BB7466D5CB41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F3528845-8FF4-4CDA-9772-E3BCEB07FEC3}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
   <si>
     <t>LR</t>
   </si>
@@ -429,10 +429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2F979F3-4F26-4B87-84BC-02F8CEE0AD2E}">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -486,25 +486,28 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>5.0000000000000002E-5</v>
+        <v>1E-4</v>
       </c>
       <c r="B2">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="C2">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G2">
         <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0.1</v>
       </c>
       <c r="I2" t="s">
         <v>10</v>
@@ -515,25 +518,28 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>5.0000000000000002E-5</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="B3">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="C3">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G3">
         <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0.1</v>
       </c>
       <c r="I3" t="s">
         <v>10</v>
@@ -544,28 +550,31 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>5.0000000000000002E-5</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="B4">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="C4">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
+      <c r="H4">
+        <v>0.1</v>
+      </c>
       <c r="I4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J4" t="s">
         <v>14</v>
@@ -573,28 +582,31 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>5.0000000000000002E-5</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="B5">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="C5">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
+      <c r="H5">
+        <v>0.2</v>
+      </c>
       <c r="I5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J5" t="s">
         <v>14</v>
@@ -602,28 +614,31 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>5.0000000000000002E-5</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="B6">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="C6">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E6">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
+      <c r="H6">
+        <v>0.1</v>
+      </c>
       <c r="I6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J6" t="s">
         <v>14</v>
@@ -631,436 +646,33 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>5.0000000000000002E-5</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="B7">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="C7">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E7">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
+      <c r="H7">
+        <v>0.2</v>
+      </c>
       <c r="I7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>5.0000000000000002E-5</v>
-      </c>
-      <c r="B8">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="C8">
-        <v>20</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>8</v>
-      </c>
-      <c r="F8">
-        <v>4</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="I8" t="s">
-        <v>10</v>
-      </c>
-      <c r="J8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>5.0000000000000002E-5</v>
-      </c>
-      <c r="B9">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="C9">
-        <v>20</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>8</v>
-      </c>
-      <c r="F9">
-        <v>4</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="I9" t="s">
-        <v>10</v>
-      </c>
-      <c r="J9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>5.0000000000000002E-5</v>
-      </c>
-      <c r="B10">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="C10">
-        <v>20</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>8</v>
-      </c>
-      <c r="F10">
-        <v>4</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="I10" t="s">
-        <v>10</v>
-      </c>
-      <c r="J10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>5.0000000000000002E-5</v>
-      </c>
-      <c r="B11">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="C11">
-        <v>20</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11">
-        <v>8</v>
-      </c>
-      <c r="F11">
-        <v>4</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="I11" t="s">
-        <v>10</v>
-      </c>
-      <c r="J11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>5.0000000000000002E-5</v>
-      </c>
-      <c r="B12">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="C12">
-        <v>20</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12">
-        <v>8</v>
-      </c>
-      <c r="F12">
-        <v>4</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="I12" t="s">
-        <v>10</v>
-      </c>
-      <c r="J12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>5.0000000000000002E-5</v>
-      </c>
-      <c r="B13">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="C13">
-        <v>20</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <v>8</v>
-      </c>
-      <c r="F13">
-        <v>4</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="I13" t="s">
-        <v>11</v>
-      </c>
-      <c r="J13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>5.0000000000000002E-5</v>
-      </c>
-      <c r="B14">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="C14">
-        <v>20</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14">
-        <v>8</v>
-      </c>
-      <c r="F14">
-        <v>4</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="I14" t="s">
-        <v>11</v>
-      </c>
-      <c r="J14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>5.0000000000000002E-5</v>
-      </c>
-      <c r="B15">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="C15">
-        <v>20</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15">
-        <v>8</v>
-      </c>
-      <c r="F15">
-        <v>4</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="I15" t="s">
-        <v>11</v>
-      </c>
-      <c r="J15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>5.0000000000000002E-5</v>
-      </c>
-      <c r="B16">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="C16">
-        <v>20</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16">
-        <v>8</v>
-      </c>
-      <c r="F16">
-        <v>4</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="I16" t="s">
-        <v>11</v>
-      </c>
-      <c r="J16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>5.0000000000000002E-5</v>
-      </c>
-      <c r="B17">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="C17">
-        <v>20</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17">
-        <v>8</v>
-      </c>
-      <c r="F17">
-        <v>4</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="I17" t="s">
-        <v>11</v>
-      </c>
-      <c r="J17" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>5.0000000000000002E-5</v>
-      </c>
-      <c r="B18">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="C18">
-        <v>20</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18">
-        <v>8</v>
-      </c>
-      <c r="F18">
-        <v>4</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="I18" t="s">
-        <v>9</v>
-      </c>
-      <c r="J18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>5.0000000000000002E-5</v>
-      </c>
-      <c r="B19">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="C19">
-        <v>20</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19">
-        <v>8</v>
-      </c>
-      <c r="F19">
-        <v>4</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="I19" t="s">
-        <v>9</v>
-      </c>
-      <c r="J19" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>5.0000000000000002E-5</v>
-      </c>
-      <c r="B20">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="C20">
-        <v>20</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20">
-        <v>8</v>
-      </c>
-      <c r="F20">
-        <v>4</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="I20" t="s">
-        <v>9</v>
-      </c>
-      <c r="J20" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>5.0000000000000002E-5</v>
-      </c>
-      <c r="B21">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="C21">
-        <v>20</v>
-      </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21">
-        <v>8</v>
-      </c>
-      <c r="F21">
-        <v>4</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="I21" t="s">
-        <v>9</v>
-      </c>
-      <c r="J21" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1071,21 +683,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100A4C4272FEC3ED94D9147A18D360ABCC2" ma:contentTypeVersion="0" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="bb0adb39dc53a7fc7f87a99b31a8b76c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="09270097fc33596bf500c8e856bc5ac3">
     <xsd:element name="properties">
@@ -1199,30 +796,22 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5ABDAA39-7C8F-4425-9DCB-BCE95D6A850E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4EFE66F-602C-46D8-97BD-F257E7C91EF6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{24ECEFF1-040D-4B15-B585-B189D3749CF4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1236,4 +825,27 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4EFE66F-602C-46D8-97BD-F257E7C91EF6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5ABDAA39-7C8F-4425-9DCB-BCE95D6A850E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/experiments.xlsx
+++ b/experiments.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Documents\GitHub\DeeplabV3-for-Corals\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43C76C75-21A0-456F-B485-BB7466D5CB41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDA0355C-84BD-4D06-B48C-F5B0E2198541}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F3528845-8FF4-4CDA-9772-E3BCEB07FEC3}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="15">
   <si>
     <t>LR</t>
   </si>
@@ -68,16 +68,16 @@
     <t>DICE</t>
   </si>
   <si>
-    <t>DICE+BOUNDARY</t>
-  </si>
-  <si>
     <t>OPTIMIZER</t>
   </si>
   <si>
-    <t>MOMENTUM</t>
-  </si>
-  <si>
     <t>ADAM</t>
+  </si>
+  <si>
+    <t>TVERSKY_GAMMA</t>
+  </si>
+  <si>
+    <t>TVERSKY_ALPHA</t>
   </si>
 </sst>
 </file>
@@ -113,8 +113,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -429,10 +430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2F979F3-4F26-4B87-84BC-02F8CEE0AD2E}">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -442,14 +443,15 @@
     <col min="4" max="4" width="9.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="33.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.44140625" customWidth="1"/>
-    <col min="11" max="12" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.5546875" customWidth="1"/>
+    <col min="8" max="8" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="33.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -469,211 +471,706 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="B2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C2">
+        <v>16</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="F2">
+        <v>4</v>
+      </c>
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0.1</v>
+      </c>
+      <c r="J2">
+        <v>0.75</v>
+      </c>
+      <c r="K2">
+        <v>0.6</v>
+      </c>
+      <c r="L2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3">
         <v>1E-4</v>
       </c>
-      <c r="B2">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="C2">
-        <v>3</v>
-      </c>
-      <c r="D2">
-        <v>2</v>
-      </c>
-      <c r="E2">
-        <v>3</v>
-      </c>
-      <c r="F2">
-        <v>6</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0.1</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="B3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C3">
+        <v>16</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>8</v>
+      </c>
+      <c r="F3">
+        <v>4</v>
+      </c>
+      <c r="G3" t="s">
         <v>10</v>
       </c>
-      <c r="J2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="B3">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="C3">
-        <v>3</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3">
-        <v>3</v>
-      </c>
-      <c r="F3">
-        <v>6</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
       <c r="H3">
-        <v>0.1</v>
-      </c>
-      <c r="I3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0.1</v>
+      </c>
+      <c r="J3">
+        <v>0.75</v>
+      </c>
+      <c r="K3">
+        <v>0.6</v>
+      </c>
+      <c r="L3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="B4">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C4">
+        <v>16</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>8</v>
+      </c>
+      <c r="F4">
+        <v>4</v>
+      </c>
+      <c r="G4" t="s">
         <v>10</v>
       </c>
-      <c r="J3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="B4">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="E4">
-        <v>3</v>
-      </c>
-      <c r="F4">
-        <v>6</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
       <c r="H4">
-        <v>0.1</v>
-      </c>
-      <c r="I4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>1.0000000000000001E-5</v>
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0.1</v>
+      </c>
+      <c r="J4">
+        <v>0.75</v>
+      </c>
+      <c r="K4">
+        <v>0.6</v>
+      </c>
+      <c r="L4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="B5">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D5">
         <v>2</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="F5">
-        <v>6</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="G5" t="s">
+        <v>10</v>
       </c>
       <c r="H5">
-        <v>0.2</v>
-      </c>
-      <c r="I5" t="s">
-        <v>11</v>
-      </c>
-      <c r="J5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0.1</v>
+      </c>
+      <c r="J5">
+        <v>0.75</v>
+      </c>
+      <c r="K5">
+        <v>0.6</v>
+      </c>
+      <c r="L5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>5.0000000000000001E-4</v>
+        <v>1E-4</v>
       </c>
       <c r="B6">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D6">
         <v>2</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="F6">
-        <v>6</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="G6" t="s">
+        <v>10</v>
       </c>
       <c r="H6">
-        <v>0.1</v>
-      </c>
-      <c r="I6" t="s">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0.1</v>
+      </c>
+      <c r="J6">
+        <v>0.75</v>
+      </c>
+      <c r="K6">
+        <v>0.6</v>
+      </c>
+      <c r="L6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="B7">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C7">
+        <v>16</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>16</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+      <c r="G7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0.1</v>
+      </c>
+      <c r="J7">
+        <v>0.75</v>
+      </c>
+      <c r="K7">
+        <v>0.6</v>
+      </c>
+      <c r="L7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="B8">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C8">
+        <v>16</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>8</v>
+      </c>
+      <c r="F8">
+        <v>4</v>
+      </c>
+      <c r="G8" t="s">
         <v>9</v>
       </c>
-      <c r="J6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="B7">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="C7">
-        <v>3</v>
-      </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>6</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0.2</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0.1</v>
+      </c>
+      <c r="J8">
+        <v>0.75</v>
+      </c>
+      <c r="K8">
+        <v>0.6</v>
+      </c>
+      <c r="L8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>1E-4</v>
+      </c>
+      <c r="B9">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C9">
+        <v>16</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>8</v>
+      </c>
+      <c r="F9">
+        <v>4</v>
+      </c>
+      <c r="G9" t="s">
         <v>9</v>
       </c>
-      <c r="J7" t="s">
-        <v>14</v>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0.1</v>
+      </c>
+      <c r="J9">
+        <v>0.75</v>
+      </c>
+      <c r="K9">
+        <v>0.6</v>
+      </c>
+      <c r="L9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="B10">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C10">
+        <v>16</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>8</v>
+      </c>
+      <c r="F10">
+        <v>4</v>
+      </c>
+      <c r="G10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0.1</v>
+      </c>
+      <c r="J10">
+        <v>0.75</v>
+      </c>
+      <c r="K10">
+        <v>0.6</v>
+      </c>
+      <c r="L10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="B11">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C11">
+        <v>16</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>16</v>
+      </c>
+      <c r="F11">
+        <v>4</v>
+      </c>
+      <c r="G11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0.1</v>
+      </c>
+      <c r="J11">
+        <v>0.75</v>
+      </c>
+      <c r="K11">
+        <v>0.6</v>
+      </c>
+      <c r="L11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>1E-4</v>
+      </c>
+      <c r="B12">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C12">
+        <v>16</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>16</v>
+      </c>
+      <c r="F12">
+        <v>4</v>
+      </c>
+      <c r="G12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0.1</v>
+      </c>
+      <c r="J12">
+        <v>0.75</v>
+      </c>
+      <c r="K12">
+        <v>0.6</v>
+      </c>
+      <c r="L12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="B13">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C13">
+        <v>16</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>16</v>
+      </c>
+      <c r="F13">
+        <v>4</v>
+      </c>
+      <c r="G13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0.1</v>
+      </c>
+      <c r="J13">
+        <v>0.75</v>
+      </c>
+      <c r="K13">
+        <v>0.6</v>
+      </c>
+      <c r="L13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="B14">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C14">
+        <v>16</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>8</v>
+      </c>
+      <c r="F14">
+        <v>4</v>
+      </c>
+      <c r="G14" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0.1</v>
+      </c>
+      <c r="J14">
+        <v>0.6</v>
+      </c>
+      <c r="K14">
+        <v>0.6</v>
+      </c>
+      <c r="L14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>1E-4</v>
+      </c>
+      <c r="B15">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C15">
+        <v>16</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>8</v>
+      </c>
+      <c r="F15">
+        <v>4</v>
+      </c>
+      <c r="G15" t="s">
+        <v>9</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0.1</v>
+      </c>
+      <c r="J15">
+        <v>0.6</v>
+      </c>
+      <c r="K15">
+        <v>0.6</v>
+      </c>
+      <c r="L15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="B16">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C16">
+        <v>16</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>8</v>
+      </c>
+      <c r="F16">
+        <v>4</v>
+      </c>
+      <c r="G16" t="s">
+        <v>9</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0.1</v>
+      </c>
+      <c r="J16">
+        <v>0.6</v>
+      </c>
+      <c r="K16">
+        <v>0.6</v>
+      </c>
+      <c r="L16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="B17">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C17">
+        <v>16</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <v>16</v>
+      </c>
+      <c r="F17">
+        <v>4</v>
+      </c>
+      <c r="G17" t="s">
+        <v>9</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0.1</v>
+      </c>
+      <c r="J17">
+        <v>0.6</v>
+      </c>
+      <c r="K17">
+        <v>0.6</v>
+      </c>
+      <c r="L17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>1E-4</v>
+      </c>
+      <c r="B18">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C18">
+        <v>16</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18">
+        <v>16</v>
+      </c>
+      <c r="F18">
+        <v>4</v>
+      </c>
+      <c r="G18" t="s">
+        <v>9</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0.1</v>
+      </c>
+      <c r="J18">
+        <v>0.6</v>
+      </c>
+      <c r="K18">
+        <v>0.6</v>
+      </c>
+      <c r="L18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="B19">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C19">
+        <v>16</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <v>16</v>
+      </c>
+      <c r="F19">
+        <v>4</v>
+      </c>
+      <c r="G19" t="s">
+        <v>9</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0.1</v>
+      </c>
+      <c r="J19">
+        <v>0.6</v>
+      </c>
+      <c r="K19">
+        <v>0.6</v>
+      </c>
+      <c r="L19" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -683,6 +1180,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100A4C4272FEC3ED94D9147A18D360ABCC2" ma:contentTypeVersion="0" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="bb0adb39dc53a7fc7f87a99b31a8b76c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="09270097fc33596bf500c8e856bc5ac3">
     <xsd:element name="properties">
@@ -796,22 +1308,30 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5ABDAA39-7C8F-4425-9DCB-BCE95D6A850E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4EFE66F-602C-46D8-97BD-F257E7C91EF6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{24ECEFF1-040D-4B15-B585-B189D3749CF4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -825,27 +1345,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4EFE66F-602C-46D8-97BD-F257E7C91EF6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5ABDAA39-7C8F-4425-9DCB-BCE95D6A850E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/experiments.xlsx
+++ b/experiments.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Documents\GitHub\DeeplabV3-for-Corals\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDA0355C-84BD-4D06-B48C-F5B0E2198541}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EE5E9CF-BC36-4F67-9428-839F4BAEBCC7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F3528845-8FF4-4CDA-9772-E3BCEB07FEC3}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="15">
   <si>
     <t>LR</t>
   </si>
@@ -433,7 +433,7 @@
   <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -491,13 +491,13 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>5.0000000000000001E-4</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="B2">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="C2">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D2">
         <v>2</v>
@@ -529,13 +529,13 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>1E-4</v>
+        <v>5.9999999999999995E-4</v>
       </c>
       <c r="B3">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="C3">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -567,13 +567,13 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>5.0000000000000002E-5</v>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="B4">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="C4">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -604,20 +604,20 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>5.0000000000000001E-4</v>
+      <c r="A5">
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="B5">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="C5">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D5">
         <v>2</v>
       </c>
       <c r="E5">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F5">
         <v>4</v>
@@ -642,14 +642,14 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>1E-4</v>
+      <c r="A6" s="1">
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="B6">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="C6">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -680,14 +680,14 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>5.0000000000000002E-5</v>
+      <c r="A7" s="1">
+        <v>5.9999999999999995E-4</v>
       </c>
       <c r="B7">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="C7">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -718,26 +718,26 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>5.0000000000000001E-4</v>
+      <c r="A8">
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="B8">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="C8">
+        <v>20</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
         <v>16</v>
       </c>
-      <c r="D8">
-        <v>2</v>
-      </c>
-      <c r="E8">
-        <v>8</v>
-      </c>
       <c r="F8">
         <v>4</v>
       </c>
       <c r="G8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -757,25 +757,25 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>1E-4</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="B9">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="C9">
+        <v>20</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
         <v>16</v>
       </c>
-      <c r="D9">
-        <v>2</v>
-      </c>
-      <c r="E9">
-        <v>8</v>
-      </c>
       <c r="F9">
         <v>4</v>
       </c>
       <c r="G9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -794,14 +794,14 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>5.0000000000000002E-5</v>
+      <c r="A10" s="1">
+        <v>6.9999999999999999E-4</v>
       </c>
       <c r="B10">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="C10">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D10">
         <v>2</v>
@@ -832,20 +832,20 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
+      <c r="A11">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="B11">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="C11">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D11">
         <v>2</v>
       </c>
       <c r="E11">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F11">
         <v>4</v>
@@ -871,19 +871,19 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>1E-4</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="B12">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="C12">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D12">
         <v>2</v>
       </c>
       <c r="E12">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F12">
         <v>4</v>
@@ -908,14 +908,14 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>5.0000000000000002E-5</v>
+      <c r="A13" s="1">
+        <v>6.9999999999999999E-4</v>
       </c>
       <c r="B13">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="C13">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D13">
         <v>2</v>
@@ -946,20 +946,20 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
+      <c r="A14">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="B14">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="C14">
+        <v>20</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
         <v>16</v>
-      </c>
-      <c r="D14">
-        <v>2</v>
-      </c>
-      <c r="E14">
-        <v>8</v>
       </c>
       <c r="F14">
         <v>4</v>
@@ -974,7 +974,7 @@
         <v>0.1</v>
       </c>
       <c r="J14">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="K14">
         <v>0.6</v>
@@ -985,19 +985,19 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>1E-4</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="B15">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="C15">
+        <v>20</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15">
         <v>16</v>
-      </c>
-      <c r="D15">
-        <v>2</v>
-      </c>
-      <c r="E15">
-        <v>8</v>
       </c>
       <c r="F15">
         <v>4</v>
@@ -1012,7 +1012,7 @@
         <v>0.1</v>
       </c>
       <c r="J15">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="K15">
         <v>0.6</v>
@@ -1022,156 +1022,10 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>5.0000000000000002E-5</v>
-      </c>
-      <c r="B16">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="C16">
-        <v>16</v>
-      </c>
-      <c r="D16">
-        <v>2</v>
-      </c>
-      <c r="E16">
-        <v>8</v>
-      </c>
-      <c r="F16">
-        <v>4</v>
-      </c>
-      <c r="G16" t="s">
-        <v>9</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0.1</v>
-      </c>
-      <c r="J16">
-        <v>0.6</v>
-      </c>
-      <c r="K16">
-        <v>0.6</v>
-      </c>
-      <c r="L16" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="B17">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="C17">
-        <v>16</v>
-      </c>
-      <c r="D17">
-        <v>2</v>
-      </c>
-      <c r="E17">
-        <v>16</v>
-      </c>
-      <c r="F17">
-        <v>4</v>
-      </c>
-      <c r="G17" t="s">
-        <v>9</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0.1</v>
-      </c>
-      <c r="J17">
-        <v>0.6</v>
-      </c>
-      <c r="K17">
-        <v>0.6</v>
-      </c>
-      <c r="L17" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>1E-4</v>
-      </c>
-      <c r="B18">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="C18">
-        <v>16</v>
-      </c>
-      <c r="D18">
-        <v>2</v>
-      </c>
-      <c r="E18">
-        <v>16</v>
-      </c>
-      <c r="F18">
-        <v>4</v>
-      </c>
-      <c r="G18" t="s">
-        <v>9</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0.1</v>
-      </c>
-      <c r="J18">
-        <v>0.6</v>
-      </c>
-      <c r="K18">
-        <v>0.6</v>
-      </c>
-      <c r="L18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>5.0000000000000002E-5</v>
-      </c>
-      <c r="B19">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="C19">
-        <v>16</v>
-      </c>
-      <c r="D19">
-        <v>2</v>
-      </c>
-      <c r="E19">
-        <v>16</v>
-      </c>
-      <c r="F19">
-        <v>4</v>
-      </c>
-      <c r="G19" t="s">
-        <v>9</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0.1</v>
-      </c>
-      <c r="J19">
-        <v>0.6</v>
-      </c>
-      <c r="K19">
-        <v>0.6</v>
-      </c>
-      <c r="L19" t="s">
-        <v>12</v>
-      </c>
+      <c r="A16" s="1"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1180,21 +1034,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100A4C4272FEC3ED94D9147A18D360ABCC2" ma:contentTypeVersion="0" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="bb0adb39dc53a7fc7f87a99b31a8b76c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="09270097fc33596bf500c8e856bc5ac3">
     <xsd:element name="properties">
@@ -1308,17 +1147,33 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5ABDAA39-7C8F-4425-9DCB-BCE95D6A850E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{24ECEFF1-040D-4B15-B585-B189D3749CF4}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1332,17 +1187,16 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{24ECEFF1-040D-4B15-B585-B189D3749CF4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5ABDAA39-7C8F-4425-9DCB-BCE95D6A850E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/experiments.xlsx
+++ b/experiments.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Documents\GitHub\DeeplabV3-for-Corals\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EE5E9CF-BC36-4F67-9428-839F4BAEBCC7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5E768FB-4CD0-4E77-ABD0-8DDFCC73BC9A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F3528845-8FF4-4CDA-9772-E3BCEB07FEC3}"/>
   </bookViews>
@@ -433,7 +433,7 @@
   <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -497,10 +497,10 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="C2">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E2">
         <v>8</v>
@@ -535,10 +535,10 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="C3">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E3">
         <v>8</v>
@@ -573,10 +573,10 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="C4">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E4">
         <v>8</v>
@@ -611,10 +611,10 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="C5">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E5">
         <v>8</v>
@@ -649,10 +649,10 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="C6">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E6">
         <v>16</v>
@@ -687,10 +687,10 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="C7">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E7">
         <v>16</v>
@@ -725,10 +725,10 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="C8">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E8">
         <v>16</v>
@@ -763,10 +763,10 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="C9">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E9">
         <v>16</v>
@@ -801,10 +801,10 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="C10">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E10">
         <v>8</v>
@@ -839,10 +839,10 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="C11">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E11">
         <v>8</v>
@@ -877,10 +877,10 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="C12">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E12">
         <v>8</v>
@@ -915,10 +915,10 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="C13">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E13">
         <v>16</v>
@@ -953,10 +953,10 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="C14">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E14">
         <v>16</v>
@@ -991,10 +991,10 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="C15">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E15">
         <v>16</v>
@@ -1034,6 +1034,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100A4C4272FEC3ED94D9147A18D360ABCC2" ma:contentTypeVersion="0" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="bb0adb39dc53a7fc7f87a99b31a8b76c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="09270097fc33596bf500c8e856bc5ac3">
     <xsd:element name="properties">
@@ -1147,22 +1162,30 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5ABDAA39-7C8F-4425-9DCB-BCE95D6A850E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4EFE66F-602C-46D8-97BD-F257E7C91EF6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{24ECEFF1-040D-4B15-B585-B189D3749CF4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1176,27 +1199,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4EFE66F-602C-46D8-97BD-F257E7C91EF6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5ABDAA39-7C8F-4425-9DCB-BCE95D6A850E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>